--- a/business_process/decomposition_SC.xlsx
+++ b/business_process/decomposition_SC.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\Основы моделирования бизнес-процессов\Семинар 3. Декомпозиция процессов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\gb-study\business_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998A218-BB48-43A9-B6AB-427B8EBF686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E742DB2-3DFB-4F00-B4A4-F94C0D474262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{E8218889-4D22-4CE1-80B4-B762F661E999}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Семинар 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,10 +84,6 @@
 Оформление акта выполненных работ, бухгалтерских и гарантийных документов</t>
   </si>
   <si>
-    <t>Согласование времени
-Составление маршрута</t>
-  </si>
-  <si>
     <t>Поддержание в рабочем состоянии оборудования и инфраструктуры</t>
   </si>
   <si>
@@ -99,39 +95,45 @@
 Отслеживание интенсивности расхода ТМЦ, складских остатков и формирование плана закупок</t>
   </si>
   <si>
+    <t>Заказ и доставка запасных частей и оборудования</t>
+  </si>
+  <si>
+    <t>Хранение техники</t>
+  </si>
+  <si>
+    <t>Организация хранения техники в течение всего цикла ремонта от приемки до выдачи</t>
+  </si>
+  <si>
+    <t>Тестирование отремонтированной техники
+Составление отчетов о тестировании
+Передача техники на приемку для выдачи</t>
+  </si>
+  <si>
+    <t>Выполнение работ по ремонту
+Взаимодействие со складом
+Составление отчетов о ремонте</t>
+  </si>
+  <si>
+    <t>Определение неисправности
+Определение требуемых запасных частей и ТМЦ, сроков и стоимости ремонта
+Взаимодействие с приемкой, складом, службой заказа ТМЦ</t>
+  </si>
+  <si>
+    <t>Согласование времени
+Составление маршрута
+Взаимодействие со службой доставки</t>
+  </si>
+  <si>
     <t>Контроль исправности и ремонт производственного оборудования
 Разработка и внедрение новых производственных решений
-Поддержание работоспособности ИТ-инфраструктуры</t>
-  </si>
-  <si>
-    <t>Заказ и доставка запасных частей и оборудования</t>
+Поддержание работоспособности ИТ-инфраструктуры
+Доставка техники, оборудования и материалов собственными силами</t>
   </si>
   <si>
     <t>Заказ материалов и оборудования у поставщиков
 Отслеживание хода поставки
 Взаимодействие с транспортными компаниями
-Организация доставки собственными силами</t>
-  </si>
-  <si>
-    <t>Хранение техники</t>
-  </si>
-  <si>
-    <t>Организация хранения техники в течение всего цикла ремонта от приемки до выдачи</t>
-  </si>
-  <si>
-    <t>Тестирование отремонтированной техники
-Составление отчетов о тестировании
-Передача техники на приемку для выдачи</t>
-  </si>
-  <si>
-    <t>Выполнение работ по ремонту
-Взаимодействие со складом
-Составление отчетов о ремонте</t>
-  </si>
-  <si>
-    <t>Определение неисправности
-Определение требуемых запасных частей и ТМЦ, сроков и стоимости ремонта
-Взаимодействие с приемкой, складом, службой заказа ТМЦ</t>
+Взаимодействие со службой доставки</t>
   </si>
 </sst>
 </file>
@@ -293,13 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,11 +310,17 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE8C8FB-ED3A-4760-ACB9-AC876BD5E291}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -678,26 +680,26 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A4" s="5">
@@ -715,29 +717,29 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -751,28 +753,28 @@
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
